--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\UiPath\GenrateYearlyReportForVendorDispacher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dirgh\Documents\UiPath\GenrateYearlyReportForVendorDispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4173635E-9E80-48BD-9507-E4DC3EE3A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E04B12-0160-49CD-B3AA-F1059A32627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>https://acme-test.uipath.com/login</t>
   </si>
   <si>
-    <t>ACME System 1 - Work Items (uipath.com)</t>
-  </si>
-  <si>
-    <t>ACME_login</t>
+    <t>https://acme-test.uipath.com/work-items</t>
+  </si>
+  <si>
+    <t>ACME_Login</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1660,7 +1660,7 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{81199C11-5B71-43C2-9E95-80CBC66E793F}"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://acme-test.uipath.com/work-items" xr:uid="{1EEDB9A7-0058-4EB5-BA91-3FB5318906D3}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{1EEDB9A7-0058-4EB5-BA91-3FB5318906D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dirgh\Documents\UiPath\GenrateYearlyReportForVendorDispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\UiPath\GenrateYearlyReportForVendorDispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E04B12-0160-49CD-B3AA-F1059A32627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9124679F-27DA-450C-97E9-F740F22194E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>GenerateYearlyRport</t>
-  </si>
-  <si>
     <t>GenrateYearlyReportForVendorDispacher</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>ACME_Login</t>
+  </si>
+  <si>
+    <t>GenerateYearlyReport</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -636,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -644,26 +644,26 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
